--- a/data_processing_elements-BCS.xlsx
+++ b/data_processing_elements-BCS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melchias\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB7AA88-6F71-4577-8CD5-0BC0E0D28FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B1E053-CBF5-43BA-8D8C-967392EF2C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2A6783BB-5B5E-40A9-959B-24C52A32495F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="571">
   <si>
     <t>BCS</t>
   </si>
@@ -2813,6 +2813,103 @@
 (B10CHOL &gt; 0) &amp; (B10HDL &gt; 0) &amp; (B10TRIG &gt; 0) ~ round(as.numeric(B10CHOL) - as.numeric(B10HDL) - (as.numeric(B10TRIG)/2.2), 2);
 ELSE ~ NA_real_)</t>
   </si>
+  <si>
+    <t>B10HLTHGN</t>
+  </si>
+  <si>
+    <t>-9=Refused
+-8=Not known
+1=Excellent
+2=Very good
+3=Good
+4=Fair
+5=Poor</t>
+  </si>
+  <si>
+    <t>General state of health. CAPI Interview. "I would now like to ask you about your health. In general, would you say your health is…"  Options were: Excellent, Very good, Good, Fair, Poor</t>
+  </si>
+  <si>
+    <t>recode(1=4;2=4;3=3;4=2;5=1;ELSE=NA)</t>
+  </si>
+  <si>
+    <t>recode(3=1;4=2;ELSE=NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">case_when(
+(rowSums(mutate(.,
+temp_B10Q15A = case_when(B10Q15A == 1 ~ 0*5;
+B10Q15A == 2 ~ 0.5*5;
+B10Q15A == 3 ~ 1.5*5;
+B10Q15A == 4 ~ 2.5*5;
+B10Q15A == 5 ~ 3.5*5;
+B10Q15A == 6 ~ 4*5;
+ELSE ~ NA_real_),
+temp_B10Q15B = case_when(B10Q15B == 1 ~ 0.5*2;
+B10Q15B == 2 ~ 0.5*2;
+B10Q15B == 3 ~ 1.5*2;
+B10Q15B == 4 ~ 2.5*2;
+B10Q15B == 5 ~ 3.5*2;
+B10Q15B == 6 ~ 4*2;
+ELSE ~ NA_real_)) %&gt;%
+select(temp_B10Q15A, temp_B10Q15B), na.rm = FALSE)/7) &lt; 1 ~ 1L;
+(rowSums(mutate(.,
+temp_B10Q15A = case_when(B10Q15A == 1 ~ 0*5;
+B10Q15A == 2 ~ 0.5*5;
+B10Q15A == 3 ~ 1.5*5;
+B10Q15A == 4 ~ 2.5*5;
+B10Q15A == 5 ~ 3.5*5;
+B10Q15A == 6 ~ 4*5;
+ELSE ~ NA_real_),
+temp_B10Q15B = case_when(B10Q15B == 1 ~ 0.5*2;
+B10Q15B == 2 ~ 0.5*2;
+B10Q15B == 3 ~ 1.5*2;
+B10Q15B == 4 ~ 2.5*2;
+B10Q15B == 5 ~ 3.5*2;
+B10Q15B == 6 ~ 4*2;
+ELSE ~ NA_real_)) %&gt;%
+select(temp_B10Q15A, temp_B10Q15B), na.rm = FALSE)/7) &gt;= 1 &amp;
+(rowSums(mutate(.,
+temp_B10Q15A = case_when(B10Q15A == 1 ~ 0*5;
+B10Q15A == 2 ~ 0.5*5;
+B10Q15A == 3 ~ 1.5*5;
+B10Q15A == 4 ~ 2.5*5;
+B10Q15A == 5 ~ 3.5*5;
+B10Q15A == 6 ~ 4*5;
+ELSE ~ NA_real_),
+temp_B10Q15B = case_when(B10Q15B == 1 ~ 0.5*2;
+B10Q15B == 2 ~ 0.5*2;
+B10Q15B == 3 ~ 1.5*2;
+B10Q15B == 4 ~ 2.5*2;
+B10Q15B == 5 ~ 3.5*2;
+B10Q15B == 6 ~ 4*2;
+ELSE ~ NA_real_)) %&gt;%
+select(temp_B10Q15A, temp_B10Q15B), na.rm = FALSE)/7) &lt;= 3 ~ 2L;
+(rowSums(mutate(.,
+temp_B10Q15A = case_when(B10Q15A == 1 ~ 0*5;
+B10Q15A == 2 ~ 0.5*5;
+B10Q15A == 3 ~ 1.5*5;
+B10Q15A == 4 ~ 2.5*5;
+B10Q15A == 5 ~ 3.5*5;
+B10Q15A == 6 ~ 4*5;
+ELSE ~ NA_real_),
+temp_B10Q15B = case_when(B10Q15B == 1 ~ 0.5*2;
+B10Q15B == 2 ~ 0.5*2;
+B10Q15B == 3 ~ 1.5*2;
+B10Q15B == 4 ~ 2.5*2;
+B10Q15B == 5 ~ 3.5*2;
+B10Q15B == 6 ~ 4*2;
+ELSE ~ NA_real_)) %&gt;%
+select(temp_B10Q15A, temp_B10Q15B), na.rm = FALSE)/7) &gt; 3 ~ 3L; 
+ELSE ~ NA_integer_)
+</t>
+  </si>
+  <si>
+    <t>case_when(
+((B10MEDLNGW_1 == 1 &amp; B10LNGDRC4_1 == 205) | (B10MEDLNGW_2 == 1 &amp; B10LNGDRC4_2 == 205) | (B10MEDLNGW_3 == 1 &amp; B10LNGDRC4_3 == 205) | (B10MEDLNGW_4 == 1 &amp; B10LNGDRC4_4 == 205) | (B10MEDLNGW_5 == 1 &amp; B10LNGDRC4_5 == 205) | (B10MEDLNGW_6 == 1 &amp; B10LNGDRC4_6 == 205) | (B10MEDLNGW_7 == 1 &amp; B10LNGDRC4_7 == 205) | (B10MEDLNGW_8 == 1 &amp; B10LNGDRC4_8 == 205) | (B10MEDLNGW_9 == 1 &amp; B10LNGDRC4_9 == 205) | (B10MEDLNGW_10 == 1 &amp; B10LNGDRC4_10 == 205)) |
+(B10DRC4_1 == 205 | B10DRC4_2 == 205 | B10DRC4_3 == 205 | B10DRC4_4 == 205 | B10DRC4_5 == 205 | B10DRC4_6 == 205 | B10DRC4_7 == 205 | B10DRC4_8 == 205 | B10DRC4_9 == 205 | B10DRC4_10 == 205) ~ 1L;
+(B10MEDLNGW_1 %in% c(-9, -8, -1)) | (B10MEDLNGW_2 %in% c(-9, -8, -1)) | (B10MEDLNGW_3 %in% c(-9, -8, -1)) | (B10MEDLNGW_4 %in% c(-9, -8, -1)) | (B10MEDLNGW_5 %in% c(-9, -8, -1)) | (B10MEDLNGW_6 %in% c(-9, -8, -1)) | (B10MEDLNGW_7 %in% c(-9, -8, -1)) | (B10MEDLNGW_8 %in% c(-9, -8, -1)) | (B10MEDLNGW_9 %in% c(-9, -8, -1)) ~ NA_integer_;
+ELSE ~ 0L)</t>
+  </si>
 </sst>
 </file>
 
@@ -2898,8 +2995,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2918,7 +3019,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3236,15 +3337,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5E8CE2-4CDD-4679-8B68-FC70B285017D}">
   <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W35" sqref="W35"/>
+    <sheetView tabSelected="1" topLeftCell="R71" workbookViewId="0">
+      <selection activeCell="W75" sqref="W75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="31.42578125" style="1" customWidth="1"/>
+    <col min="4" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
-    <col min="10" max="23" width="9.140625" style="1"/>
+    <col min="10" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -5191,7 +5298,7 @@
       <c r="V35" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="W35" s="7" t="s">
+      <c r="W35" s="1" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5661,19 +5768,34 @@
         <v>340</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>46</v>
+        <v>332</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>249</v>
+        <v>27</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>95</v>
+        <v>568</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
@@ -5752,19 +5874,25 @@
         <v>351</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>46</v>
+        <v>564</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>565</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>249</v>
+        <v>27</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>95</v>
+        <v>567</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
@@ -6090,7 +6218,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6113,19 +6241,25 @@
         <v>355</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>46</v>
+        <v>383</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>249</v>
+        <v>27</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="W56" s="1" t="s">
-        <v>95</v>
+        <v>151</v>
+      </c>
+      <c r="W56" s="6" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
@@ -6670,7 +6804,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -6719,7 +6853,7 @@
       <c r="V70" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="W70" s="6" t="s">
+      <c r="W70" s="7" t="s">
         <v>448</v>
       </c>
     </row>
@@ -6920,7 +7054,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -6942,7 +7076,7 @@
       <c r="I75" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="J75" s="6" t="s">
         <v>477</v>
       </c>
       <c r="K75" s="1" t="s">
@@ -6961,16 +7095,16 @@
         <v>447</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="U75" s="1" t="s">
-        <v>249</v>
+        <v>27</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="W75" s="1" t="s">
-        <v>95</v>
+        <v>151</v>
+      </c>
+      <c r="W75" s="6" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">

--- a/data_processing_elements-BCS.xlsx
+++ b/data_processing_elements-BCS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B1E053-CBF5-43BA-8D8C-967392EF2C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90276CDF-D91A-4EE3-ABAE-81BF440F9B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2A6783BB-5B5E-40A9-959B-24C52A32495F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2A6783BB-5B5E-40A9-959B-24C52A32495F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="572">
   <si>
     <t>BCS</t>
   </si>
@@ -2910,6 +2910,9 @@
 (B10MEDLNGW_1 %in% c(-9, -8, -1)) | (B10MEDLNGW_2 %in% c(-9, -8, -1)) | (B10MEDLNGW_3 %in% c(-9, -8, -1)) | (B10MEDLNGW_4 %in% c(-9, -8, -1)) | (B10MEDLNGW_5 %in% c(-9, -8, -1)) | (B10MEDLNGW_6 %in% c(-9, -8, -1)) | (B10MEDLNGW_7 %in% c(-9, -8, -1)) | (B10MEDLNGW_8 %in% c(-9, -8, -1)) | (B10MEDLNGW_9 %in% c(-9, -8, -1)) ~ NA_integer_;
 ELSE ~ 0L)</t>
   </si>
+  <si>
+    <t>direct_mapping</t>
+  </si>
 </sst>
 </file>
 
@@ -3019,7 +3022,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3337,11 +3340,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5E8CE2-4CDD-4679-8B68-FC70B285017D}">
   <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R71" workbookViewId="0">
-      <selection activeCell="W75" sqref="W75"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="31.42578125" style="1" customWidth="1"/>
@@ -5019,16 +5022,16 @@
         <v>248</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>95</v>
+        <v>571</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>95</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
